--- a/data/manual/nominal.xlsx
+++ b/data/manual/nominal.xlsx
@@ -53,9 +53,6 @@
     <t>pb2014</t>
   </si>
   <si>
-    <t>non-standard report and value in thousands</t>
-  </si>
-  <si>
     <t>rn2014</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>non-standard report</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,15 +432,15 @@
         <v>848164000</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>2014</v>
@@ -449,7 +449,7 @@
         <v>211807708.50999999</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
